--- a/00_Proc_de_Evaluacion/xlsx/Proc_de_Evaluacion_SOTR.xlsx
+++ b/00_Proc_de_Evaluacion/xlsx/Proc_de_Evaluacion_SOTR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DEP1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Rubrica_TrabajosInvestigacion" sheetId="4" r:id="rId4"/>
     <sheet name="Lista_cotejo_Cuadro_o_Tabla" sheetId="5" r:id="rId5"/>
     <sheet name="Lista_cotejo_Reporte_Practica" sheetId="6" r:id="rId6"/>
+    <sheet name="Lista_cotejo_Album_Archivos" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="113">
   <si>
     <t>Periodo:</t>
   </si>
@@ -438,6 +439,38 @@
   </si>
   <si>
     <t>Nombres de todos los integrantes del equipo</t>
+  </si>
+  <si>
+    <t>Presenta la totalidad de archivos que deben estar en el álbum.</t>
+  </si>
+  <si>
+    <t>Lista de cotejo de álbum de archivos de código fuente en lenguaje 
+ensamblador, ANSI C, C++, etc.</t>
+  </si>
+  <si>
+    <t>El archivo make está presente.</t>
+  </si>
+  <si>
+    <t>El archivo make tiene el nombre Makefile</t>
+  </si>
+  <si>
+    <t>El archivo make contiene todos los objetivos que debe contener.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los archivos fuente presentan errores de preprocesamiento. </t>
+  </si>
+  <si>
+    <t>Todos los objetivos del archivo make se pueden construir usando el comando 
+make con cada objetivo.</t>
+  </si>
+  <si>
+    <t>Los archivos fuente presentan errores de compilación.</t>
+  </si>
+  <si>
+    <t>Los archivos fuente presentan errores de enlazado.</t>
+  </si>
+  <si>
+    <t>Los archivos presentan errores en tiempo de ejecución.</t>
   </si>
 </sst>
 </file>
@@ -533,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -578,6 +611,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -616,22 +654,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -930,12 +966,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1127,12 +1163,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1243,12 +1279,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1363,15 +1399,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
@@ -1474,26 +1510,26 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="2:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="26"/>
+      <c r="H9" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1523,11 +1559,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1592,7 +1628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B2:D18"/>
     </sheetView>
   </sheetViews>
@@ -1604,28 +1640,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1633,9 +1669,9 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -1643,9 +1679,9 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -1653,9 +1689,9 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -1663,9 +1699,9 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -1673,9 +1709,9 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -1683,9 +1719,9 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -1693,9 +1729,9 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -1703,9 +1739,9 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -1713,9 +1749,9 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -1723,9 +1759,9 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -1733,9 +1769,9 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -1743,9 +1779,9 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -1753,9 +1789,9 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
@@ -1763,16 +1799,16 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
       <c r="F18" s="39"/>
       <c r="G18" s="40"/>
       <c r="H18" s="40"/>
@@ -1785,4 +1821,107 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="4" max="4" width="70.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>